--- a/data/trans_orig/P6603-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6603-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>248002</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>229396</v>
+        <v>228617</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>267464</v>
+        <v>267756</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6455860152118736</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5971519395551075</v>
+        <v>0.595125174085965</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6962482291437753</v>
+        <v>0.6970093817585733</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -765,19 +765,19 @@
         <v>124767</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>113909</v>
+        <v>114181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>133426</v>
+        <v>133582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8012850569291313</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7315536190499277</v>
+        <v>0.7332992758928047</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8568913776869249</v>
+        <v>0.8578931356530451</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>356</v>
@@ -786,19 +786,19 @@
         <v>372769</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>350195</v>
+        <v>351423</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>393885</v>
+        <v>394570</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6904936905088533</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6486790210975686</v>
+        <v>0.6509530146684598</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7296069125742578</v>
+        <v>0.7308758737347516</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>79524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64122</v>
+        <v>63552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95666</v>
+        <v>96929</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2070135282114558</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1669186564940815</v>
+        <v>0.1654342384792011</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2490323433590587</v>
+        <v>0.2523210885510823</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -836,19 +836,19 @@
         <v>21533</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13794</v>
+        <v>14370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31253</v>
+        <v>31521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1382911742492426</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08859123013740339</v>
+        <v>0.09228759900854724</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2007109741810297</v>
+        <v>0.2024335646877731</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>99</v>
@@ -857,19 +857,19 @@
         <v>101057</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>83362</v>
+        <v>84087</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120944</v>
+        <v>122149</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1871922041792662</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1544144173038468</v>
+        <v>0.1557567081739979</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2240293239332805</v>
+        <v>0.2262601747790543</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>50680</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36756</v>
+        <v>37735</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64808</v>
+        <v>64726</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1319283984179391</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09568057027988484</v>
+        <v>0.09822893348657658</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1687057918678896</v>
+        <v>0.1684922345485188</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -907,19 +907,19 @@
         <v>7431</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2886</v>
+        <v>3632</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13374</v>
+        <v>14156</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04772565267982053</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01853170514628222</v>
+        <v>0.02332461372555927</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08589086815388686</v>
+        <v>0.09091213759681424</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -928,19 +928,19 @@
         <v>58112</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44019</v>
+        <v>43825</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>75436</v>
+        <v>72720</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1076421245718333</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0815375597915597</v>
+        <v>0.08117870084668566</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1397322348641279</v>
+        <v>0.1347019104347952</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>5944</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2819</v>
+        <v>2920</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11313</v>
+        <v>11985</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01547205815873142</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007339220457130089</v>
+        <v>0.007601192915755099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02944841889288797</v>
+        <v>0.03119847237689792</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5993</v>
+        <v>6947</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0126981161418056</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03848854257771898</v>
+        <v>0.044615285067923</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -999,19 +999,19 @@
         <v>7921</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3829</v>
+        <v>3931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15911</v>
+        <v>15027</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01467198074004718</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007092085989612936</v>
+        <v>0.007280774403268742</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02947316899879088</v>
+        <v>0.02783546863864323</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>377842</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>352419</v>
+        <v>353390</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>399562</v>
+        <v>400489</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6784113005190295</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6327645791086394</v>
+        <v>0.634507979893955</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7174103113307952</v>
+        <v>0.7190731809523924</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>209</v>
@@ -1124,19 +1124,19 @@
         <v>224206</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>210019</v>
+        <v>210361</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>234340</v>
+        <v>235560</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8404180229017372</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7872387870263574</v>
+        <v>0.7885198537512357</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8784064403135526</v>
+        <v>0.8829785048705164</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>552</v>
@@ -1145,19 +1145,19 @@
         <v>602048</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>575774</v>
+        <v>575535</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>627968</v>
+        <v>628157</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7308799794889347</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6989844416157509</v>
+        <v>0.698693562044994</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7623468034681865</v>
+        <v>0.7625768227672207</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>96325</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79268</v>
+        <v>78405</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117685</v>
+        <v>117270</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1729504037042097</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.142325424576739</v>
+        <v>0.1407750774850458</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2113015683877071</v>
+        <v>0.2105571380861394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -1195,19 +1195,19 @@
         <v>25338</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17219</v>
+        <v>16375</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38743</v>
+        <v>36899</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09497689892850808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06454272848859495</v>
+        <v>0.06137897923701238</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1452243180637996</v>
+        <v>0.1383125802980757</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -1216,19 +1216,19 @@
         <v>121663</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>101734</v>
+        <v>100654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144790</v>
+        <v>143129</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1476973356212068</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1235046466336049</v>
+        <v>0.1221927721338214</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1757736946548459</v>
+        <v>0.1737569165561815</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>55161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42498</v>
+        <v>42145</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71860</v>
+        <v>71118</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09904184981846889</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07630501683381992</v>
+        <v>0.0756714406690334</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1290235209773266</v>
+        <v>0.1276914394193197</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1266,19 +1266,19 @@
         <v>13995</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7531</v>
+        <v>7577</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23254</v>
+        <v>23302</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05245795598527572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02823115483178289</v>
+        <v>0.02840121516746094</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08716412764396397</v>
+        <v>0.08734502723164964</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>65</v>
@@ -1287,19 +1287,19 @@
         <v>69156</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54359</v>
+        <v>53932</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>86091</v>
+        <v>85751</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0839548501263941</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06599153378016606</v>
+        <v>0.06547326774208047</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1045130336851606</v>
+        <v>0.1041008610352097</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>27623</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17739</v>
+        <v>17462</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40255</v>
+        <v>40632</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04959644595829187</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03184934034913592</v>
+        <v>0.03135343620507112</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07227688413283752</v>
+        <v>0.07295489796531689</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1337,19 +1337,19 @@
         <v>3241</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9145</v>
+        <v>8504</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01214712218447898</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003541738139182611</v>
+        <v>0.003492560434099861</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03427835740733031</v>
+        <v>0.03187518686898565</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -1358,19 +1358,19 @@
         <v>30863</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21100</v>
+        <v>20380</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>46659</v>
+        <v>43587</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03746783476346433</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02561484194172086</v>
+        <v>0.0247414155178514</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0566439669642212</v>
+        <v>0.05291468696361594</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>281881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>261985</v>
+        <v>261459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>300128</v>
+        <v>301551</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6945841931140976</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6455572563037595</v>
+        <v>0.6442624165661963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7395459368982638</v>
+        <v>0.7430520886107105</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>193</v>
@@ -1483,19 +1483,19 @@
         <v>192570</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>182663</v>
+        <v>182917</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199749</v>
+        <v>199489</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9082911539845921</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8615625444260002</v>
+        <v>0.8627596391251673</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9421501010930283</v>
+        <v>0.9409233602167957</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>453</v>
@@ -1504,19 +1504,19 @@
         <v>474451</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>448596</v>
+        <v>449396</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>493786</v>
+        <v>495078</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7679183867758544</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7260709742632537</v>
+        <v>0.7273652253490942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7992124390238146</v>
+        <v>0.8013028332790643</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>69441</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>55911</v>
+        <v>53706</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>87152</v>
+        <v>86339</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1711089336802456</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.137769544994239</v>
+        <v>0.1323365696195156</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2147504594151475</v>
+        <v>0.2127492082506915</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>16</v>
@@ -1554,19 +1554,19 @@
         <v>16190</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9453</v>
+        <v>9487</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>24844</v>
+        <v>25589</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07636303004541996</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0445843730083619</v>
+        <v>0.04474684726520554</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1171792781485635</v>
+        <v>0.1206966253100049</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>82</v>
@@ -1575,19 +1575,19 @@
         <v>85631</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>70001</v>
+        <v>68575</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>105260</v>
+        <v>103940</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1385965886564212</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.113299785229302</v>
+        <v>0.1109921137600489</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1703678828909592</v>
+        <v>0.1682306955797497</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>37699</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27953</v>
+        <v>26795</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51107</v>
+        <v>52035</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09289446199700216</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0688785182353288</v>
+        <v>0.0660263133672786</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1259333030193915</v>
+        <v>0.1282208255386654</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6072</v>
+        <v>5975</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008167346478387051</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02863751567533957</v>
+        <v>0.02818041949685618</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -1646,19 +1646,19 @@
         <v>39431</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27663</v>
+        <v>27871</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53321</v>
+        <v>54343</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06382009458971188</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04477374019564051</v>
+        <v>0.04510957177619224</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08630174023941345</v>
+        <v>0.0879569956252096</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>16806</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9506</v>
+        <v>9609</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26722</v>
+        <v>26910</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0414124112086546</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02342486829398425</v>
+        <v>0.02367798639469135</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06584553075601149</v>
+        <v>0.06630872745459744</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8839</v>
+        <v>7528</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0071784694916008</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04169102596837589</v>
+        <v>0.03550792295950571</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1717,19 +1717,19 @@
         <v>18328</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10713</v>
+        <v>10815</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29712</v>
+        <v>30320</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02966492997801241</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01733901616074995</v>
+        <v>0.0175052391579351</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0480895758755631</v>
+        <v>0.04907490234866198</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>386938</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>366676</v>
+        <v>365577</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>408183</v>
+        <v>408723</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7023128640054445</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6655373311300746</v>
+        <v>0.6635420275227717</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7408734639058482</v>
+        <v>0.741853434413773</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>305</v>
@@ -1842,19 +1842,19 @@
         <v>322623</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>306506</v>
+        <v>308298</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>336550</v>
+        <v>337053</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8352815969765018</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7935545491417176</v>
+        <v>0.7981940081976394</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8713396364655674</v>
+        <v>0.8726419735983414</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>707</v>
@@ -1863,19 +1863,19 @@
         <v>709561</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>683267</v>
+        <v>682132</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>733946</v>
+        <v>735132</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7571131387943341</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7290567700026073</v>
+        <v>0.727845475471126</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7831325004308094</v>
+        <v>0.7843980012751148</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>72781</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58195</v>
+        <v>54985</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>89525</v>
+        <v>90176</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1321020682576874</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1056278845858379</v>
+        <v>0.09980067960893443</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1624921451991579</v>
+        <v>0.1636738779482838</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -1913,19 +1913,19 @@
         <v>35184</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24630</v>
+        <v>25110</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46385</v>
+        <v>48532</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09109287165188588</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0637684842237231</v>
+        <v>0.06501046725218411</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1200918603838527</v>
+        <v>0.1256511039872879</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>104</v>
@@ -1934,19 +1934,19 @@
         <v>107966</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>89169</v>
+        <v>89113</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>129372</v>
+        <v>128632</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1152009878859681</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09514422644089317</v>
+        <v>0.0950852874576516</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1380416793003263</v>
+        <v>0.137252666841788</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>63811</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>50766</v>
+        <v>50870</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>79855</v>
+        <v>79118</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1158205109461156</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09214217540116686</v>
+        <v>0.09233086748088339</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1449416403300585</v>
+        <v>0.1436040932710215</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -1984,19 +1984,19 @@
         <v>21163</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13327</v>
+        <v>13369</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32287</v>
+        <v>31814</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05479161992642381</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03450445089248711</v>
+        <v>0.03461164870357061</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08359142452293225</v>
+        <v>0.08236891529683231</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>88</v>
@@ -2005,19 +2005,19 @@
         <v>84974</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>68175</v>
+        <v>69287</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>102671</v>
+        <v>105846</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09066873335740788</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0727441036248905</v>
+        <v>0.07393039257693525</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1095518158193</v>
+        <v>0.1129397939178652</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>27418</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18863</v>
+        <v>17704</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39442</v>
+        <v>39131</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04976455679075251</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0342378887459333</v>
+        <v>0.03213432472854376</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07159014252895596</v>
+        <v>0.07102407850038683</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2055,19 +2055,19 @@
         <v>7274</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3033</v>
+        <v>3027</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14477</v>
+        <v>13439</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01883391144518842</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007852753509938344</v>
+        <v>0.00783791681710121</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03748270279204276</v>
+        <v>0.03479314996837315</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -2076,19 +2076,19 @@
         <v>34692</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24647</v>
+        <v>25152</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47947</v>
+        <v>48507</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03701713996228997</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02629890274951183</v>
+        <v>0.02683755919226593</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05116072944719373</v>
+        <v>0.05175758344517175</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>1294663</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1251036</v>
+        <v>1253429</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1336746</v>
+        <v>1335984</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6821639734016964</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6591767289643963</v>
+        <v>0.660437630221733</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7043377339383474</v>
+        <v>0.7039365099214628</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>827</v>
@@ -2201,19 +2201,19 @@
         <v>864167</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>838233</v>
+        <v>839348</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>884585</v>
+        <v>884422</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8466024851142221</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8211955966506009</v>
+        <v>0.8222876697492165</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8666050771469627</v>
+        <v>0.8664459262504839</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2068</v>
@@ -2222,19 +2222,19 @@
         <v>2158830</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2110084</v>
+        <v>2111130</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2206172</v>
+        <v>2206306</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7396740167751525</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7229724877558393</v>
+        <v>0.7233309357035534</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7558948494785287</v>
+        <v>0.7559407784010737</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>318071</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>286830</v>
+        <v>286435</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>356892</v>
+        <v>352192</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1675931991034468</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1511320700654016</v>
+        <v>0.1509241442475922</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1880478642052952</v>
+        <v>0.185571662612256</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>94</v>
@@ -2272,19 +2272,19 @@
         <v>98245</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>81513</v>
+        <v>81044</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>121672</v>
+        <v>117151</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09624837671489031</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07985596084748335</v>
+        <v>0.0793963101366785</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1191985973678507</v>
+        <v>0.1147695152845639</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>394</v>
@@ -2293,19 +2293,19 @@
         <v>416316</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>381267</v>
+        <v>379599</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>458760</v>
+        <v>456418</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.142641356695566</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1306323542737614</v>
+        <v>0.1300610585094046</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.157183826623437</v>
+        <v>0.1563813466339296</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>207352</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>181710</v>
+        <v>178770</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>235356</v>
+        <v>233204</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1092547183952473</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09574379602065525</v>
+        <v>0.09419472108618507</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1240099746479336</v>
+        <v>0.1228763814736307</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -2343,19 +2343,19 @@
         <v>44321</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31859</v>
+        <v>32538</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>59273</v>
+        <v>59083</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04341973838716148</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03121127770362351</v>
+        <v>0.03187650811645965</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05806802007061768</v>
+        <v>0.05788200190408468</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>246</v>
@@ -2364,19 +2364,19 @@
         <v>251672</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>222916</v>
+        <v>221421</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>283073</v>
+        <v>281929</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0862298654193539</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07637703912335936</v>
+        <v>0.07586492544282016</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09698852846799041</v>
+        <v>0.09659661522117677</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>77790</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>60401</v>
+        <v>60365</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>97992</v>
+        <v>95575</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04098810909960945</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03182557001053801</v>
+        <v>0.031806835557221</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05163220830417471</v>
+        <v>0.05035894941055486</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>13</v>
@@ -2414,19 +2414,19 @@
         <v>14014</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>8428</v>
+        <v>7992</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>24456</v>
+        <v>23523</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0137293997837261</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.008256866811112909</v>
+        <v>0.007829301906188711</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02395930156050871</v>
+        <v>0.02304532362007075</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>85</v>
@@ -2435,19 +2435,19 @@
         <v>91805</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>74233</v>
+        <v>74177</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>111321</v>
+        <v>112689</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03145476110992759</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02543422741908395</v>
+        <v>0.02541510825738958</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03814163940286068</v>
+        <v>0.03861037984171933</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>138484</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120930</v>
+        <v>122158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>154097</v>
+        <v>155341</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5205746607302121</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4545876465323626</v>
+        <v>0.4592015190002148</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5792625217641795</v>
+        <v>0.5839412714377183</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>119</v>
@@ -2800,19 +2800,19 @@
         <v>129301</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>118036</v>
+        <v>117932</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138291</v>
+        <v>138846</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8017446548426068</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7318951429629033</v>
+        <v>0.7312501309262496</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8574840160713181</v>
+        <v>0.8609300646125548</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>254</v>
@@ -2821,19 +2821,19 @@
         <v>267786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>248491</v>
+        <v>248864</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>287605</v>
+        <v>286912</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6266970511046283</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5815416484744723</v>
+        <v>0.5824135320814907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6730796066706033</v>
+        <v>0.6714584272223811</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>60798</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47522</v>
+        <v>48569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>75158</v>
+        <v>76812</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.228546699040248</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.178637805123268</v>
+        <v>0.1825732821260498</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2825271769356921</v>
+        <v>0.2887429218813709</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -2871,19 +2871,19 @@
         <v>18981</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12191</v>
+        <v>11881</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28423</v>
+        <v>27397</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1176947006228019</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.075593001157877</v>
+        <v>0.07366650010492039</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1762418948644891</v>
+        <v>0.1698768002141039</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -2892,19 +2892,19 @@
         <v>79780</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64207</v>
+        <v>63658</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96870</v>
+        <v>96145</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1867076717749918</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1502627740977076</v>
+        <v>0.1489789404933352</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2267049620447748</v>
+        <v>0.225006352346805</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>42612</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30937</v>
+        <v>30744</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56275</v>
+        <v>54544</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1601831332652406</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1162940464181091</v>
+        <v>0.1155688677885195</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2115424121368024</v>
+        <v>0.2050374399884455</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -2942,19 +2942,19 @@
         <v>12054</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6042</v>
+        <v>6723</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20913</v>
+        <v>20718</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0747391738076911</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03746577838940326</v>
+        <v>0.04168398190248244</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1296716531171656</v>
+        <v>0.1284659911782101</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -2963,19 +2963,19 @@
         <v>54666</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41855</v>
+        <v>42475</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69969</v>
+        <v>71465</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.127933898245286</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09795332372387083</v>
+        <v>0.09940459493065941</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1637486445311021</v>
+        <v>0.1672485362354758</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>24127</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15548</v>
+        <v>15938</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35423</v>
+        <v>35078</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09069550696429939</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05844672766048336</v>
+        <v>0.05991283096763003</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.133159968009255</v>
+        <v>0.131861104356154</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5272</v>
+        <v>4150</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005821470726900264</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03268905919235598</v>
+        <v>0.02573421479439745</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -3034,19 +3034,19 @@
         <v>25066</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16182</v>
+        <v>16209</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36483</v>
+        <v>36283</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05866137887509384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03787112514460527</v>
+        <v>0.03793278984927798</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08537995082761909</v>
+        <v>0.08491386627383678</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>232824</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>213405</v>
+        <v>211223</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>254849</v>
+        <v>251790</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5681969652612691</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5208068673002604</v>
+        <v>0.5154811436107314</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6219495683818156</v>
+        <v>0.6144836581600899</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>190</v>
@@ -3159,19 +3159,19 @@
         <v>209765</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>194168</v>
+        <v>194105</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>222571</v>
+        <v>222643</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7756344206620889</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7179613898899492</v>
+        <v>0.7177281342662051</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8229873443353978</v>
+        <v>0.8232546677983785</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>407</v>
@@ -3180,19 +3180,19 @@
         <v>442589</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>415691</v>
+        <v>412209</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>468972</v>
+        <v>466749</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6506724784657744</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6111282319897223</v>
+        <v>0.6060091008984918</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6894592295239261</v>
+        <v>0.6861908111899832</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>98109</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79836</v>
+        <v>80609</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117066</v>
+        <v>120549</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2394304535100744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1948354703913966</v>
+        <v>0.1967237386513011</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2856941482407964</v>
+        <v>0.294193859152968</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -3230,19 +3230,19 @@
         <v>38435</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27791</v>
+        <v>28109</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50537</v>
+        <v>51920</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1421180054359801</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1027610353731921</v>
+        <v>0.1039353482442055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1868665945257023</v>
+        <v>0.1919818049865427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>123</v>
@@ -3251,19 +3251,19 @@
         <v>136544</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>115865</v>
+        <v>116465</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160087</v>
+        <v>160293</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2007397836858148</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1703383958750509</v>
+        <v>0.1712211327494074</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2353515457685984</v>
+        <v>0.235654127634197</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>47520</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35594</v>
+        <v>36291</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>62292</v>
+        <v>62587</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1159700054225902</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08686572430823274</v>
+        <v>0.08856669157666359</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1520211701316311</v>
+        <v>0.1527417616114031</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -3301,19 +3301,19 @@
         <v>13112</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7549</v>
+        <v>7261</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22585</v>
+        <v>21711</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04848231698240037</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02791481148874312</v>
+        <v>0.02684791383951171</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08351137886869862</v>
+        <v>0.08028009787112392</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>57</v>
@@ -3322,19 +3322,19 @@
         <v>60632</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>46501</v>
+        <v>47742</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>76873</v>
+        <v>78064</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08913742724457802</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06836324093981407</v>
+        <v>0.07018732926454729</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1130143288150074</v>
+        <v>0.1147660432018502</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>31307</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20661</v>
+        <v>21329</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>44926</v>
+        <v>44579</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07640257580606637</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05042127653581981</v>
+        <v>0.0520516682345068</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1096398172814951</v>
+        <v>0.1087934012515458</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -3372,19 +3372,19 @@
         <v>9132</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4257</v>
+        <v>4410</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16974</v>
+        <v>17932</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03376525691953073</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01574060913670527</v>
+        <v>0.01630599420673095</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06276451716734396</v>
+        <v>0.06630567165284511</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>35</v>
@@ -3393,19 +3393,19 @@
         <v>40438</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>29423</v>
+        <v>29419</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56137</v>
+        <v>57156</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05945031060383291</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04325684497628918</v>
+        <v>0.04325038385139249</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08253026711910502</v>
+        <v>0.08402794365427431</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>187316</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>166558</v>
+        <v>167869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>203554</v>
+        <v>204656</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5863723472694412</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5213923904359664</v>
+        <v>0.525495462079724</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6372019547443457</v>
+        <v>0.6406515957870668</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>152</v>
@@ -3518,19 +3518,19 @@
         <v>169127</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>154689</v>
+        <v>154216</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>181103</v>
+        <v>179871</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7927424435989997</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7250690044486381</v>
+        <v>0.7228501056559875</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8488794819887545</v>
+        <v>0.8431010915496767</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>323</v>
@@ -3539,19 +3539,19 @@
         <v>356442</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>332656</v>
+        <v>331462</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>378131</v>
+        <v>379174</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6690082835886391</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6243636499369694</v>
+        <v>0.6221225015117045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7097153591027271</v>
+        <v>0.7116735394928326</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>73511</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>59267</v>
+        <v>58052</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>90332</v>
+        <v>89862</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2301173960954954</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1855295366848252</v>
+        <v>0.1817253746447816</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2827728864298862</v>
+        <v>0.281301857127534</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>23</v>
@@ -3589,19 +3589,19 @@
         <v>26440</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16125</v>
+        <v>17412</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>37158</v>
+        <v>38868</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1239303839278614</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07558367176010454</v>
+        <v>0.0816152658287535</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1741699009844721</v>
+        <v>0.182182812528782</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>90</v>
@@ -3610,19 +3610,19 @@
         <v>99950</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>82969</v>
+        <v>81809</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>121088</v>
+        <v>120885</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1875973637289957</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1557241509214687</v>
+        <v>0.1535479425362893</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2272697716053361</v>
+        <v>0.2268888643610417</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>42743</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29642</v>
+        <v>30641</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57720</v>
+        <v>58571</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1338035560962613</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09279239546606124</v>
+        <v>0.09591950935496379</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1806871206809641</v>
+        <v>0.18334988486596</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -3660,19 +3660,19 @@
         <v>12556</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7019</v>
+        <v>7084</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22338</v>
+        <v>21941</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05885101667513471</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03290018745198606</v>
+        <v>0.03320374875215935</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.104705017659153</v>
+        <v>0.102844452703347</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -3681,19 +3681,19 @@
         <v>55299</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40932</v>
+        <v>40258</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71912</v>
+        <v>72275</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1037906163112482</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07682500415979504</v>
+        <v>0.07555973130397191</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1349725699632482</v>
+        <v>0.1356525559002444</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>15879</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8527</v>
+        <v>9528</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26312</v>
+        <v>27137</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04970670053880216</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02669409363637427</v>
+        <v>0.02982505750585029</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08236601201500152</v>
+        <v>0.08495086959551586</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -3731,19 +3731,19 @@
         <v>5222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2070</v>
+        <v>1982</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12415</v>
+        <v>11897</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0244761557980042</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009702898869596627</v>
+        <v>0.009289913497778992</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05819225835463965</v>
+        <v>0.05576283195391986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -3752,19 +3752,19 @@
         <v>21101</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13255</v>
+        <v>12748</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32682</v>
+        <v>31790</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03960373637111705</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02487770852375688</v>
+        <v>0.02392661920670746</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06134099243191547</v>
+        <v>0.05966624057469117</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>259195</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>237254</v>
+        <v>238625</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>279090</v>
+        <v>279688</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.622036874590098</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5693805839399588</v>
+        <v>0.5726697607326514</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6697820234650003</v>
+        <v>0.6712167969074077</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>216</v>
@@ -3877,19 +3877,19 @@
         <v>226194</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>210692</v>
+        <v>208919</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>240779</v>
+        <v>240314</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.757350819448249</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.705444530661151</v>
+        <v>0.6995088985174599</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8061827360455245</v>
+        <v>0.804628303435839</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>465</v>
@@ -3898,19 +3898,19 @@
         <v>485389</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>458238</v>
+        <v>460257</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>509284</v>
+        <v>511493</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6785313507521994</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6405761121968596</v>
+        <v>0.6433990928117247</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7119341826495132</v>
+        <v>0.7150223306934366</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>95693</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80377</v>
+        <v>79842</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116209</v>
+        <v>115308</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2296520081874632</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1928960678374783</v>
+        <v>0.1916105834479458</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2788871528275748</v>
+        <v>0.2767257345626092</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -3948,19 +3948,19 @@
         <v>46099</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34634</v>
+        <v>34766</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59960</v>
+        <v>60740</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.154350750323239</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1159621156642473</v>
+        <v>0.1164059695950773</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2007598345935556</v>
+        <v>0.2033702291128098</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -3969,19 +3969,19 @@
         <v>141792</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>121827</v>
+        <v>120751</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>165110</v>
+        <v>163971</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1982132298572163</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1703030040726148</v>
+        <v>0.1687993229175856</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2308087683239436</v>
+        <v>0.2292170397761182</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>33829</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24144</v>
+        <v>23281</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>46641</v>
+        <v>46334</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08118436667645271</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05794303329603145</v>
+        <v>0.05587271864964139</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.111933565964194</v>
+        <v>0.111195573179735</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -4019,19 +4019,19 @@
         <v>11691</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6014</v>
+        <v>5992</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20813</v>
+        <v>20773</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03914556134256303</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02013682915708868</v>
+        <v>0.02006102227099121</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06968675851916374</v>
+        <v>0.06955222490583131</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -4040,19 +4040,19 @@
         <v>45520</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>32275</v>
+        <v>35257</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>60163</v>
+        <v>61027</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06363288454127211</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04511779875880959</v>
+        <v>0.0492857883529146</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0841024331814496</v>
+        <v>0.08531080263754542</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>27971</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18478</v>
+        <v>18444</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42030</v>
+        <v>40826</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06712675054598607</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04434456475774202</v>
+        <v>0.04426214414010914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1008664382554376</v>
+        <v>0.09797694332411142</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4090,19 +4090,19 @@
         <v>14680</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8246</v>
+        <v>8001</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23998</v>
+        <v>23524</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04915286888594903</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02760862986141334</v>
+        <v>0.0267888089762706</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08034985283548192</v>
+        <v>0.07876247690266364</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -4111,19 +4111,19 @@
         <v>42651</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29970</v>
+        <v>30710</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58369</v>
+        <v>56785</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05962253484931224</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04189495491714117</v>
+        <v>0.04292957512840832</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08159410412375162</v>
+        <v>0.07938090198844165</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>817820</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>781139</v>
+        <v>779142</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>855710</v>
+        <v>853512</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5792259402452692</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5532465650161104</v>
+        <v>0.5518325780863512</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6060618795632157</v>
+        <v>0.6045053243847108</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>677</v>
@@ -4236,19 +4236,19 @@
         <v>734387</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>708038</v>
+        <v>708398</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>760705</v>
+        <v>760736</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7781776981669671</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7502576896212807</v>
+        <v>0.7506383582225181</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8060650675893338</v>
+        <v>0.8060975911998107</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1449</v>
@@ -4257,19 +4257,19 @@
         <v>1552207</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1502176</v>
+        <v>1499981</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1597102</v>
+        <v>1596789</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6589307208693514</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6376921649137423</v>
+        <v>0.6367602944711374</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6779893616610488</v>
+        <v>0.6778563164463652</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>328111</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>296291</v>
+        <v>292996</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>362876</v>
+        <v>361687</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2323868984207391</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2098497336887782</v>
+        <v>0.2075164809046039</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2570095697982635</v>
+        <v>0.2561668088415183</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>121</v>
@@ -4307,19 +4307,19 @@
         <v>129955</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>108303</v>
+        <v>110677</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>152840</v>
+        <v>152758</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.137704014216933</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1147611296027874</v>
+        <v>0.1172767085307881</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1619535026867021</v>
+        <v>0.1618665926155299</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>429</v>
@@ -4328,19 +4328,19 @@
         <v>458066</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>422914</v>
+        <v>420561</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>500939</v>
+        <v>498066</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1944546951914019</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.179532207990019</v>
+        <v>0.178533356635416</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.212654821946939</v>
+        <v>0.2114352193036399</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>166704</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>142685</v>
+        <v>141669</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>192651</v>
+        <v>194386</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1180691173364091</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1010576676187896</v>
+        <v>0.1003377763624784</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1364464617072149</v>
+        <v>0.1376749806739304</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -4378,19 +4378,19 @@
         <v>49412</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36948</v>
+        <v>36274</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63711</v>
+        <v>64792</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05235856498961304</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03915141593665521</v>
+        <v>0.03843684700057747</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06751051830181692</v>
+        <v>0.06865502491095472</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>200</v>
@@ -4399,19 +4399,19 @@
         <v>216116</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>187705</v>
+        <v>190896</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>244803</v>
+        <v>249060</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09174391561816156</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07968324052467012</v>
+        <v>0.08103763302785645</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.103921758209519</v>
+        <v>0.1057291863160225</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>99283</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>81863</v>
+        <v>80539</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>124077</v>
+        <v>121309</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07031804399758258</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0579803171931563</v>
+        <v>0.05704222126677044</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08787811476618466</v>
+        <v>0.08591758531404488</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>28</v>
@@ -4449,19 +4449,19 @@
         <v>29973</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20475</v>
+        <v>19511</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>42521</v>
+        <v>42393</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03175972262648678</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02169582378377781</v>
+        <v>0.02067404618698909</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0450566214026303</v>
+        <v>0.04492107851551051</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>118</v>
@@ -4470,19 +4470,19 @@
         <v>129256</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>108231</v>
+        <v>107092</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>153643</v>
+        <v>156664</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0548706683210851</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04594535562205481</v>
+        <v>0.04546173736435234</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06522328323952283</v>
+        <v>0.0665056919102142</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>139782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>123530</v>
+        <v>123788</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>153811</v>
+        <v>153431</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5819078481459442</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.514253865484065</v>
+        <v>0.5153260047368424</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.640312852469504</v>
+        <v>0.6387275837155814</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>130</v>
@@ -4835,19 +4835,19 @@
         <v>124478</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>112852</v>
+        <v>114497</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>134048</v>
+        <v>134473</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7579394282074494</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6871490022465441</v>
+        <v>0.6971633854340729</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8162102533613782</v>
+        <v>0.8187997007126018</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>263</v>
@@ -4856,19 +4856,19 @@
         <v>264260</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>245097</v>
+        <v>244692</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>282250</v>
+        <v>282835</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6533887232998974</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6060081115259776</v>
+        <v>0.6050069441555629</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6978687149999765</v>
+        <v>0.6993175230275411</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>54620</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41461</v>
+        <v>43009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68761</v>
+        <v>69073</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2273810291609316</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1725999397262655</v>
+        <v>0.1790443933785816</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2862505649653683</v>
+        <v>0.2875485163450797</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -4906,19 +4906,19 @@
         <v>27620</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19862</v>
+        <v>19483</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38080</v>
+        <v>37763</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1681764230543887</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1209401792360708</v>
+        <v>0.1186306859435152</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2318685297133627</v>
+        <v>0.2299363216767382</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>81</v>
@@ -4927,19 +4927,19 @@
         <v>82240</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>68354</v>
+        <v>66369</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98932</v>
+        <v>98622</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2033399050844328</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1690071637993152</v>
+        <v>0.1640997259079001</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2446105216420446</v>
+        <v>0.2438463673982601</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>34953</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25450</v>
+        <v>25395</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46858</v>
+        <v>47106</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1455098266171661</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1059467897447922</v>
+        <v>0.1057182456901411</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1950672152488043</v>
+        <v>0.1960997986577627</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -4977,19 +4977,19 @@
         <v>9719</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4836</v>
+        <v>4523</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16629</v>
+        <v>16642</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0591810940397708</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02944429190161091</v>
+        <v>0.02753934375214192</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1012530859354564</v>
+        <v>0.1013338945064096</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -4998,19 +4998,19 @@
         <v>44673</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33039</v>
+        <v>31695</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>58014</v>
+        <v>58960</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1104544498864243</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08169010605423781</v>
+        <v>0.07836785691081292</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1434398129269264</v>
+        <v>0.1457796599940289</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>10858</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4967</v>
+        <v>5340</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19517</v>
+        <v>20563</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04520129607595815</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02067865383370903</v>
+        <v>0.02223152863879005</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08124675040493855</v>
+        <v>0.0856048473644682</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9498</v>
+        <v>8428</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01470305469839107</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05783514708869676</v>
+        <v>0.05132017220809678</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -5069,19 +5069,19 @@
         <v>13273</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7520</v>
+        <v>6717</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25119</v>
+        <v>24001</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0328169217292455</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01859371425221697</v>
+        <v>0.01660721816565416</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06210617000829449</v>
+        <v>0.05934247325183774</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>232300</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>212758</v>
+        <v>213004</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>255065</v>
+        <v>252913</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5685341026483545</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5207085729066139</v>
+        <v>0.5213108450690832</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6242508253028062</v>
+        <v>0.6189833402342783</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>199</v>
@@ -5194,19 +5194,19 @@
         <v>205251</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>190004</v>
+        <v>190838</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>218280</v>
+        <v>219819</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7525229219549194</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6966197083298195</v>
+        <v>0.6996788988115797</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8002909515311813</v>
+        <v>0.805931257082983</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>404</v>
@@ -5215,19 +5215,19 @@
         <v>437551</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>408599</v>
+        <v>409134</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>462791</v>
+        <v>462020</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6421871378517214</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5996941461450324</v>
+        <v>0.6004798212786677</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6792317371178577</v>
+        <v>0.6781003305271532</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>110702</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91485</v>
+        <v>90881</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>129835</v>
+        <v>128729</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2709339118870571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2239026707376637</v>
+        <v>0.2224244308370704</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3177599269361467</v>
+        <v>0.3150533991017018</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -5265,19 +5265,19 @@
         <v>42247</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31647</v>
+        <v>31070</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54206</v>
+        <v>54652</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1548905686687296</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1160297115119305</v>
+        <v>0.1139122078818306</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1987384986228518</v>
+        <v>0.2003729181578732</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -5286,19 +5286,19 @@
         <v>152949</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>131013</v>
+        <v>130999</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>174853</v>
+        <v>176333</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2244803041331271</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1922861605922615</v>
+        <v>0.1922657138005403</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2566293544873395</v>
+        <v>0.2588008286009471</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>53835</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40953</v>
+        <v>41614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>68946</v>
+        <v>68291</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1317570538275942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1002302845680325</v>
+        <v>0.1018469068130872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1687402662292618</v>
+        <v>0.1671361737939591</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -5336,19 +5336,19 @@
         <v>18888</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12119</v>
+        <v>12174</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28645</v>
+        <v>28588</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06924930670603832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04443305640053399</v>
+        <v>0.04463587065099153</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1050238031106245</v>
+        <v>0.1048137265414362</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>70</v>
@@ -5357,19 +5357,19 @@
         <v>72723</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58168</v>
+        <v>57826</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>89064</v>
+        <v>91857</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1067344175794858</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08537231682280848</v>
+        <v>0.08486982201213464</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1307185398606859</v>
+        <v>0.1348176882478065</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>11757</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6246</v>
+        <v>5948</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20599</v>
+        <v>20258</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0287749316369943</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01528738146307776</v>
+        <v>0.01455721597488068</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05041544801808072</v>
+        <v>0.04957914904116222</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -5407,19 +5407,19 @@
         <v>6365</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2409</v>
+        <v>2477</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12586</v>
+        <v>14352</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02333720267031265</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008830646013076099</v>
+        <v>0.009080624994502967</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04614299305094163</v>
+        <v>0.05261910714620199</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -5428,19 +5428,19 @@
         <v>18123</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10965</v>
+        <v>10915</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28478</v>
+        <v>28908</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02659814043566568</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01609268443565193</v>
+        <v>0.01601910069913948</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04179734878089424</v>
+        <v>0.04242845571005299</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>162958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143796</v>
+        <v>144131</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>182764</v>
+        <v>184012</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4519442932877843</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3988015966676512</v>
+        <v>0.3997303395358934</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5068747932443363</v>
+        <v>0.5103355704789554</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>180</v>
@@ -5553,19 +5553,19 @@
         <v>184018</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>168102</v>
+        <v>167697</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>198826</v>
+        <v>198130</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6827526464924217</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6236980555717282</v>
+        <v>0.6221968537313088</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7376933709795498</v>
+        <v>0.7351095848250548</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>325</v>
@@ -5574,19 +5574,19 @@
         <v>346976</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>321683</v>
+        <v>318394</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>374005</v>
+        <v>369839</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5506729902943791</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5105317273586819</v>
+        <v>0.5053118562538041</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5935706924981563</v>
+        <v>0.5869592031335655</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>120447</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>102019</v>
+        <v>102580</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>139789</v>
+        <v>140043</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3340452773603985</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2829387348965166</v>
+        <v>0.28449386350617</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3876898983709259</v>
+        <v>0.3883937797504731</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>53</v>
@@ -5624,19 +5624,19 @@
         <v>53276</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>41241</v>
+        <v>42248</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>68081</v>
+        <v>66373</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1976685495360003</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1530125713818963</v>
+        <v>0.1567495425883306</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2525957894128425</v>
+        <v>0.2462590542886424</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>162</v>
@@ -5645,19 +5645,19 @@
         <v>173723</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>151091</v>
+        <v>152584</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>195769</v>
+        <v>197968</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.275709881551789</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2397907119454042</v>
+        <v>0.2421610102414343</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3106988123665554</v>
+        <v>0.3141875973472267</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>58874</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44894</v>
+        <v>44993</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74434</v>
+        <v>73840</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1632812078173826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.124508390236679</v>
+        <v>0.1247841551155804</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2064332764802632</v>
+        <v>0.2047866546853489</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -5695,19 +5695,19 @@
         <v>23918</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15586</v>
+        <v>15637</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34100</v>
+        <v>34364</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08874319055557506</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05782953411948836</v>
+        <v>0.05801692291515807</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1265176978451764</v>
+        <v>0.1274989275987521</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>76</v>
@@ -5716,19 +5716,19 @@
         <v>82793</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65435</v>
+        <v>66859</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100553</v>
+        <v>101446</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1313974340304403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.103850043935944</v>
+        <v>0.1061088675878826</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1595842361464166</v>
+        <v>0.1610018170638543</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>18291</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10991</v>
+        <v>10776</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28177</v>
+        <v>28432</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05072922153443463</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03048147392955101</v>
+        <v>0.02988464442366599</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07814486179289024</v>
+        <v>0.07885305518403746</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -5766,19 +5766,19 @@
         <v>8311</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4033</v>
+        <v>3939</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15497</v>
+        <v>15966</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03083561341600292</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0149631673463903</v>
+        <v>0.01461343931220029</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05749792712632368</v>
+        <v>0.05923931809422018</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -5787,19 +5787,19 @@
         <v>26602</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16976</v>
+        <v>18499</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38552</v>
+        <v>39060</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04221969412339153</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.026941610164284</v>
+        <v>0.02935866043105198</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06118493499522425</v>
+        <v>0.06199016636545359</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>262298</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>243383</v>
+        <v>243658</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>279462</v>
+        <v>280153</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6606126933893046</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6129738813346719</v>
+        <v>0.6136662057023632</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.703840340961807</v>
+        <v>0.7055818822313803</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>251</v>
@@ -5912,19 +5912,19 @@
         <v>267439</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>251395</v>
+        <v>253259</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>279303</v>
+        <v>279723</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8267770470495901</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.77717686970944</v>
+        <v>0.7829381994234207</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8634546330868411</v>
+        <v>0.8647524293268464</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>507</v>
@@ -5933,19 +5933,19 @@
         <v>529737</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>504918</v>
+        <v>503250</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>552762</v>
+        <v>550988</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7352103579701093</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7007645839506748</v>
+        <v>0.6984495679327523</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7671662320338515</v>
+        <v>0.7647043238276997</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>77296</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63184</v>
+        <v>61979</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>95576</v>
+        <v>92839</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1946737538208792</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1591332482761117</v>
+        <v>0.1560964275567894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2407122753970022</v>
+        <v>0.2338203782058564</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -5983,19 +5983,19 @@
         <v>38846</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28451</v>
+        <v>28304</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52608</v>
+        <v>51446</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1200897260292402</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08795484414072062</v>
+        <v>0.08750142478635439</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1626354310822664</v>
+        <v>0.159042734377173</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>114</v>
@@ -6004,19 +6004,19 @@
         <v>116141</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>97772</v>
+        <v>96340</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>135276</v>
+        <v>137570</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1611900723589636</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1356958995762315</v>
+        <v>0.1337083153565619</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1877472820529016</v>
+        <v>0.1909301008573935</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>39772</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29596</v>
+        <v>29370</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>53268</v>
+        <v>52158</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.100167538777853</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07453813447267749</v>
+        <v>0.07397038778090913</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1341593767692915</v>
+        <v>0.1313622209123365</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -6054,19 +6054,19 @@
         <v>10231</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5107</v>
+        <v>5077</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18361</v>
+        <v>17329</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03162815784210385</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01578932634909151</v>
+        <v>0.01569536663976397</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0567625125734466</v>
+        <v>0.05357339123723896</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>49</v>
@@ -6075,19 +6075,19 @@
         <v>50003</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>37687</v>
+        <v>37743</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66663</v>
+        <v>64717</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06939753524223292</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05230454579374686</v>
+        <v>0.05238291294208711</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09251953931285524</v>
+        <v>0.08981947288614549</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>17687</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10625</v>
+        <v>10712</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27296</v>
+        <v>27791</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0445460140119632</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02676011792375291</v>
+        <v>0.02697929307965029</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06874719343964411</v>
+        <v>0.06999419778422189</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -6125,19 +6125,19 @@
         <v>6956</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2976</v>
+        <v>2794</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13195</v>
+        <v>13102</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02150506907906583</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009200787024186219</v>
+        <v>0.008638984362148782</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04079282711543684</v>
+        <v>0.04050524349943921</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -6146,19 +6146,19 @@
         <v>24643</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16497</v>
+        <v>15644</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36337</v>
+        <v>35339</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03420203442869429</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02289616312940359</v>
+        <v>0.02171185090661369</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05043117311436628</v>
+        <v>0.04904601772363303</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>797337</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>760401</v>
+        <v>758854</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>834411</v>
+        <v>833544</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.566922772090702</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5406603052587989</v>
+        <v>0.539560363286518</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5932828649916524</v>
+        <v>0.5926666660534197</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>760</v>
@@ -6271,19 +6271,19 @@
         <v>781187</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>752350</v>
+        <v>753146</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>806771</v>
+        <v>805726</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.758449152424634</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7304517677424794</v>
+        <v>0.7312250960584611</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7832891482783819</v>
+        <v>0.7822738678128116</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1499</v>
@@ -6292,19 +6292,19 @@
         <v>1578524</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1531539</v>
+        <v>1527272</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1625329</v>
+        <v>1625766</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6478895329100011</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6286051132139259</v>
+        <v>0.6268536597537597</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6671001469411617</v>
+        <v>0.6672795819769239</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>363064</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>331499</v>
+        <v>330153</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>399367</v>
+        <v>400564</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2581460910823068</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2357022406331011</v>
+        <v>0.2347452210737601</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2839576480223507</v>
+        <v>0.2848092125424699</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>161</v>
@@ -6342,19 +6342,19 @@
         <v>161989</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>138492</v>
+        <v>140006</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>186475</v>
+        <v>185724</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.157273704989196</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1344611400440519</v>
+        <v>0.1359311466419801</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1810474400972079</v>
+        <v>0.1803185916650372</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>499</v>
@@ -6363,19 +6363,19 @@
         <v>525053</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>487489</v>
+        <v>485949</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>566843</v>
+        <v>565574</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2155028252103525</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2000850306039695</v>
+        <v>0.1994530207965113</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2326551358305967</v>
+        <v>0.2321341688246103</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>187435</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>164040</v>
+        <v>161232</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>215492</v>
+        <v>214086</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1332697904329911</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.11663547075981</v>
+        <v>0.1146392273976972</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1532193815736496</v>
+        <v>0.1522196999296557</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -6413,19 +6413,19 @@
         <v>62757</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>47934</v>
+        <v>49064</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>79126</v>
+        <v>79716</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06092988832053494</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04653871159743203</v>
+        <v>0.04763555727058832</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07682278196128575</v>
+        <v>0.07739622880557216</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>239</v>
@@ -6434,19 +6434,19 @@
         <v>250191</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>220100</v>
+        <v>220510</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>281381</v>
+        <v>281288</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1026884807365478</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09033785145722881</v>
+        <v>0.09050631846747033</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1154899042466672</v>
+        <v>0.1154516873972947</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>58594</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>44165</v>
+        <v>45972</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>74231</v>
+        <v>75539</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04166134639400017</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03140237870206557</v>
+        <v>0.03268711574909307</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05277960784142048</v>
+        <v>0.05370984263943229</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>23</v>
@@ -6484,19 +6484,19 @@
         <v>24047</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15101</v>
+        <v>15167</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>36187</v>
+        <v>36153</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02334725426563506</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01466170973358546</v>
+        <v>0.01472602187351577</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0351333464930337</v>
+        <v>0.03510076842678707</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>77</v>
@@ -6505,19 +6505,19 @@
         <v>82641</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>65548</v>
+        <v>65947</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>103627</v>
+        <v>101927</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03391916114309853</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02690353657290774</v>
+        <v>0.02706735261498006</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04253264352671435</v>
+        <v>0.04183493384516765</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>96150</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78820</v>
+        <v>78728</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111460</v>
+        <v>113345</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4981519487863689</v>
+        <v>0.498151948786369</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4083639548749594</v>
+        <v>0.4078860318950092</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5774692260486142</v>
+        <v>0.5872348131675953</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>141</v>
@@ -6870,19 +6870,19 @@
         <v>98893</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89181</v>
+        <v>89863</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107880</v>
+        <v>108645</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7239268351449687</v>
+        <v>0.7239268351449685</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6528324556386418</v>
+        <v>0.6578295223228879</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7897128008289215</v>
+        <v>0.7953185880973898</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>215</v>
@@ -6891,19 +6891,19 @@
         <v>195042</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>175700</v>
+        <v>175452</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>213351</v>
+        <v>214702</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5917209652239561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5330392404908395</v>
+        <v>0.5322861954520516</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6472661606851802</v>
+        <v>0.6513655865886604</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>71840</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56170</v>
+        <v>57563</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>89006</v>
+        <v>86871</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3722015398229526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2910172048184452</v>
+        <v>0.298230362735814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4611365768569142</v>
+        <v>0.450078049558741</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -6941,19 +6941,19 @@
         <v>30112</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22508</v>
+        <v>21956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39562</v>
+        <v>39397</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2204319718452997</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1647644051080274</v>
+        <v>0.1607283486869585</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2896070265327746</v>
+        <v>0.2883964506807907</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>111</v>
@@ -6962,19 +6962,19 @@
         <v>101952</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>84780</v>
+        <v>84819</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>119456</v>
+        <v>120507</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3093029179706042</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.257206928396476</v>
+        <v>0.2573238529112059</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3624055853999491</v>
+        <v>0.3655933677932148</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>18478</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11661</v>
+        <v>10937</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29279</v>
+        <v>30509</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09573381906486893</v>
+        <v>0.09573381906486894</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06041483559998101</v>
+        <v>0.05666587724451198</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1516936053287454</v>
+        <v>0.1580657962481128</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -7012,19 +7012,19 @@
         <v>4485</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1919</v>
+        <v>1822</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9578</v>
+        <v>10358</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03283141234768863</v>
+        <v>0.03283141234768862</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01405016617411529</v>
+        <v>0.0133395434098575</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0701106015321408</v>
+        <v>0.07582700804479667</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -7033,19 +7033,19 @@
         <v>22963</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14142</v>
+        <v>15005</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34800</v>
+        <v>34456</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06966485974432111</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04290510842440943</v>
+        <v>0.0455226192900749</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1055765404715305</v>
+        <v>0.1045341339223715</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>6546</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1664</v>
+        <v>2076</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19572</v>
+        <v>21320</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03391269232580944</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008621663685717642</v>
+        <v>0.01075389871076508</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1014017913863943</v>
+        <v>0.1104605295755703</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -7083,19 +7083,19 @@
         <v>3116</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>947</v>
+        <v>984</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7973</v>
+        <v>7789</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02280978066204299</v>
+        <v>0.02280978066204298</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006932221480908257</v>
+        <v>0.007203393742358933</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05836692386415974</v>
+        <v>0.05701850067412759</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -7104,19 +7104,19 @@
         <v>9662</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4169</v>
+        <v>3962</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23667</v>
+        <v>24516</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02931125706111854</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01264756211539013</v>
+        <v>0.01202024285020878</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07180107996108188</v>
+        <v>0.07437608180786172</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>178259</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>157096</v>
+        <v>158351</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>197186</v>
+        <v>197158</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5424269851982322</v>
+        <v>0.5424269851982321</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.478029017239923</v>
+        <v>0.4818478289571385</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6000218409542252</v>
+        <v>0.5999367912199763</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>186</v>
@@ -7229,19 +7229,19 @@
         <v>134626</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>122356</v>
+        <v>122482</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>146610</v>
+        <v>146871</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6245362837276953</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5676163310709953</v>
+        <v>0.5682021542181711</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6801318988451728</v>
+        <v>0.6813425694119285</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>336</v>
@@ -7250,19 +7250,19 @@
         <v>312884</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>289271</v>
+        <v>289168</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>337141</v>
+        <v>336113</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5749513877364627</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5315604450453985</v>
+        <v>0.5313715807777118</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.619526434351457</v>
+        <v>0.6176374551411538</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>101913</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>85016</v>
+        <v>84881</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122763</v>
+        <v>119889</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3101126563974728</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2586952880116185</v>
+        <v>0.2582852820790386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3735562576520301</v>
+        <v>0.3648121399770497</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -7300,19 +7300,19 @@
         <v>57115</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45502</v>
+        <v>46366</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69952</v>
+        <v>70290</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2649611584706093</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2110864989714513</v>
+        <v>0.2150965213041917</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3245109871945117</v>
+        <v>0.3260782923954945</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>160</v>
@@ -7321,19 +7321,19 @@
         <v>159028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138897</v>
+        <v>137671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>182014</v>
+        <v>180572</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2922276479991799</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2552360880721893</v>
+        <v>0.2529821332642464</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3344666682563361</v>
+        <v>0.3318160280550382</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>34728</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24135</v>
+        <v>23434</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48632</v>
+        <v>50571</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1056755193014843</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07344130811027014</v>
+        <v>0.07130633746334561</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1479844961524323</v>
+        <v>0.1538832791999671</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -7371,19 +7371,19 @@
         <v>13931</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8248</v>
+        <v>8726</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20922</v>
+        <v>20388</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06462721830819128</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0382640765844705</v>
+        <v>0.04048133962042016</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09705718605789278</v>
+        <v>0.09458199086692391</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>49</v>
@@ -7392,19 +7392,19 @@
         <v>48659</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35906</v>
+        <v>36088</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63887</v>
+        <v>64710</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0894158326529953</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06598049368959384</v>
+        <v>0.06631457285639181</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1173986911234773</v>
+        <v>0.1189096307665053</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>13732</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6853</v>
+        <v>7178</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24846</v>
+        <v>25245</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04178483910281083</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02085274742028954</v>
+        <v>0.02184198996279692</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0756049720099439</v>
+        <v>0.07681815622472268</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -7442,19 +7442,19 @@
         <v>9889</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5230</v>
+        <v>4986</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18277</v>
+        <v>17901</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04587533949350402</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02425996042901652</v>
+        <v>0.02313055947412054</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0847867890846373</v>
+        <v>0.08304527844567539</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>21</v>
@@ -7463,19 +7463,19 @@
         <v>23621</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14736</v>
+        <v>14543</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>36345</v>
+        <v>35652</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04340513161136217</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02707861978368455</v>
+        <v>0.02672415205817368</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06678786497175215</v>
+        <v>0.06551319931535017</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>114799</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98664</v>
+        <v>95775</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>132154</v>
+        <v>130003</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5718556492339094</v>
+        <v>0.5718556492339095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4914783471615635</v>
+        <v>0.4770874659421732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6583056565392132</v>
+        <v>0.647592208577582</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>143</v>
@@ -7588,19 +7588,19 @@
         <v>114481</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>104170</v>
+        <v>103678</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>123831</v>
+        <v>123719</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7502889629396228</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6827116694708246</v>
+        <v>0.6794875310131934</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8115659614807973</v>
+        <v>0.810827861015107</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>235</v>
@@ -7609,19 +7609,19 @@
         <v>229281</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>208699</v>
+        <v>209525</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>248616</v>
+        <v>249228</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6489102116543507</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5906598480963826</v>
+        <v>0.5929986831519058</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7036320118983141</v>
+        <v>0.7053646456959128</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>54524</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>41062</v>
+        <v>40590</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>71231</v>
+        <v>70862</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2716019577946526</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2045442785979061</v>
+        <v>0.2021934161646083</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.354824015264295</v>
+        <v>0.3529872904655498</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>36</v>
@@ -7659,19 +7659,19 @@
         <v>29096</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20632</v>
+        <v>21351</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39146</v>
+        <v>38697</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1906924621873001</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1352185503584988</v>
+        <v>0.1399327364416762</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.256558375621689</v>
+        <v>0.2536120994899704</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>78</v>
@@ -7680,19 +7680,19 @@
         <v>83620</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>67770</v>
+        <v>67800</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>102576</v>
+        <v>101511</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2366620373828986</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1918011987831719</v>
+        <v>0.1918866579490704</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2903102778897713</v>
+        <v>0.287295378200842</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>26972</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15925</v>
+        <v>16240</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43780</v>
+        <v>45368</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1343548381036302</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07932833976058083</v>
+        <v>0.08089525075011761</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2180854846868592</v>
+        <v>0.2259930924882566</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -7730,19 +7730,19 @@
         <v>3717</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1391</v>
+        <v>1468</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7988</v>
+        <v>8382</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02435848618328389</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009116152727131765</v>
+        <v>0.009622075898187017</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0523548780846674</v>
+        <v>0.05493419165170076</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -7751,19 +7751,19 @@
         <v>30688</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18779</v>
+        <v>19431</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49452</v>
+        <v>48135</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08685406266521632</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05314855086862555</v>
+        <v>0.05499287868638565</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1399594832867055</v>
+        <v>0.1362307854301156</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>4454</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1105</v>
+        <v>1068</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10095</v>
+        <v>10647</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0221875548678077</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00550519353374233</v>
+        <v>0.005319953058537706</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05028748391340036</v>
+        <v>0.05303717124441892</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -7801,19 +7801,19 @@
         <v>5289</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2119</v>
+        <v>2188</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11354</v>
+        <v>10922</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03466008868979314</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01389054959329115</v>
+        <v>0.01433808574080417</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07441277004142763</v>
+        <v>0.07158073433263046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -7822,19 +7822,19 @@
         <v>9743</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4956</v>
+        <v>4615</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17206</v>
+        <v>17179</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02757368829753433</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01402517299745483</v>
+        <v>0.01306045235107772</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04869720731535214</v>
+        <v>0.04861935759735848</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>182799</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>166396</v>
+        <v>165370</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>196960</v>
+        <v>195287</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.7466745593694103</v>
+        <v>0.7466745593694102</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6796736824029026</v>
+        <v>0.675483774897871</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8045176314056587</v>
+        <v>0.7976865458924128</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>214</v>
@@ -7947,19 +7947,19 @@
         <v>161815</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>148849</v>
+        <v>150481</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>171107</v>
+        <v>170868</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7899277509048271</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7266333545445013</v>
+        <v>0.7345996918892536</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8352865414954301</v>
+        <v>0.834120015149417</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>380</v>
@@ -7968,19 +7968,19 @@
         <v>344614</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>324469</v>
+        <v>325459</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>361043</v>
+        <v>363226</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7663788462490212</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7215786864323024</v>
+        <v>0.7237801649951656</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8029145290552647</v>
+        <v>0.8077705505684394</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>38287</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27916</v>
+        <v>27811</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51212</v>
+        <v>51913</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1563918174375768</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1140282035777636</v>
+        <v>0.1136006310600027</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2091859550898519</v>
+        <v>0.2120490221484593</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -8018,19 +8018,19 @@
         <v>25038</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17601</v>
+        <v>18146</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33959</v>
+        <v>34294</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1222289240213663</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0859223936056296</v>
+        <v>0.08858388436727735</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1657764530018902</v>
+        <v>0.1674132250281488</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>71</v>
@@ -8039,19 +8039,19 @@
         <v>63326</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>50623</v>
+        <v>49850</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>79385</v>
+        <v>78281</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.14082867796475</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1125783509766491</v>
+        <v>0.1108606265225826</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1765427370301653</v>
+        <v>0.1740869077163905</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>16853</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9612</v>
+        <v>9002</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29294</v>
+        <v>28668</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.06883783526180004</v>
+        <v>0.06883783526180003</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03926378827394945</v>
+        <v>0.03676912940639688</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1196550394593389</v>
+        <v>0.1170988693973558</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -8089,19 +8089,19 @@
         <v>6159</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2713</v>
+        <v>2803</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12139</v>
+        <v>11737</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0300645373046416</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01324568414677245</v>
+        <v>0.01368160272098689</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0592604142600266</v>
+        <v>0.05729785802233855</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -8110,19 +8110,19 @@
         <v>23011</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14421</v>
+        <v>13763</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>36696</v>
+        <v>36063</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.05117439450527468</v>
+        <v>0.0511743945052747</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03206973693556218</v>
+        <v>0.03060623038374792</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08160725992525794</v>
+        <v>0.08020067968153642</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>6878</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2904</v>
+        <v>3088</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13187</v>
+        <v>13806</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02809578793121293</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01186394603666406</v>
+        <v>0.01261513514704312</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05386440142819532</v>
+        <v>0.05639469093321005</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -8160,19 +8160,19 @@
         <v>11836</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6788</v>
+        <v>6686</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20860</v>
+        <v>19288</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05777878776916511</v>
+        <v>0.0577787877691651</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03313599781510868</v>
+        <v>0.03264077783149835</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1018298726388191</v>
+        <v>0.09415542717915915</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -8181,19 +8181,19 @@
         <v>18714</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11695</v>
+        <v>11455</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27953</v>
+        <v>27553</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04161808128095418</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02600878874910257</v>
+        <v>0.02547430275056859</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06216427989428592</v>
+        <v>0.06127489312990773</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>572007</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>541287</v>
+        <v>535339</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>610773</v>
+        <v>604436</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5913980969326696</v>
+        <v>0.5913980969326699</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5596364274101434</v>
+        <v>0.5534866930422816</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6314777881696241</v>
+        <v>0.6249256543375049</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>684</v>
@@ -8306,19 +8306,19 @@
         <v>509814</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>486870</v>
+        <v>485378</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>530145</v>
+        <v>528459</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7184559509023551</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6861219560234145</v>
+        <v>0.6840199158596914</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7471072290992724</v>
+        <v>0.7447312738720838</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1166</v>
@@ -8327,19 +8327,19 @@
         <v>1081822</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1035016</v>
+        <v>1038828</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1121480</v>
+        <v>1124532</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6451668345984733</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6172533258280065</v>
+        <v>0.6195266353945754</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6688179425694361</v>
+        <v>0.6706378724658059</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>266564</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>234768</v>
+        <v>236253</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>297296</v>
+        <v>298018</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2756005536657175</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2427267716902938</v>
+        <v>0.244262264640348</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3073738453718233</v>
+        <v>0.3081203805379278</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>186</v>
@@ -8377,19 +8377,19 @@
         <v>141362</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>123114</v>
+        <v>125004</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>162317</v>
+        <v>162971</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1992147162150897</v>
+        <v>0.1992147162150896</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1734979211130174</v>
+        <v>0.1761617343980986</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2287456311484407</v>
+        <v>0.2296669658797596</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>420</v>
@@ -8398,19 +8398,19 @@
         <v>407926</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>372701</v>
+        <v>368819</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>443603</v>
+        <v>445663</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2432753574897655</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2222677982748163</v>
+        <v>0.2199526846384899</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2645519533564051</v>
+        <v>0.2657804520978775</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>97031</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76888</v>
+        <v>76396</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>122100</v>
+        <v>125602</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.10031987802882</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07949455171427385</v>
+        <v>0.07898584771585397</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1262391525766837</v>
+        <v>0.1298601153458973</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -8448,19 +8448,19 @@
         <v>28291</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20348</v>
+        <v>20525</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>38308</v>
+        <v>37738</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03986965127137051</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02867566197297168</v>
+        <v>0.02892457874384318</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05398572596372194</v>
+        <v>0.05318250309201283</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>115</v>
@@ -8469,19 +8469,19 @@
         <v>125322</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>100465</v>
+        <v>101672</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>150182</v>
+        <v>152015</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07473836312982647</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05991455074857464</v>
+        <v>0.06063407168877266</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08956389258603212</v>
+        <v>0.09065751377076364</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>31610</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>19984</v>
+        <v>20840</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>48162</v>
+        <v>49616</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0326814713727929</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02066191567770048</v>
+        <v>0.02154598660697312</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04979481774516387</v>
+        <v>0.05129821255549012</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>35</v>
@@ -8519,19 +8519,19 @@
         <v>30129</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20748</v>
+        <v>21366</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>40839</v>
+        <v>41844</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04245968161118482</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02923956624787384</v>
+        <v>0.03010941952729927</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05755232643724535</v>
+        <v>0.05896861237515062</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>60</v>
@@ -8540,19 +8540,19 @@
         <v>61739</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>46522</v>
+        <v>46669</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>82452</v>
+        <v>80479</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03681944478193463</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02774417445746395</v>
+        <v>0.02783227230261137</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04917201992869737</v>
+        <v>0.04799509320137704</v>
       </c>
     </row>
     <row r="28">
